--- a/2024/Old Figures/Metadata2024.xlsx
+++ b/2024/Old Figures/Metadata2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\2024\Old Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEDC03-6522-4B9D-972F-891EAFD709B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E4B43F-2D87-432C-9449-40C85F412164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11460" yWindow="8955" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat metadata" sheetId="1" r:id="rId1"/>
@@ -85,186 +85,6 @@
     <t>Fiber</t>
   </si>
   <si>
-    <t>4KS_101</t>
-  </si>
-  <si>
-    <t>4KS_102</t>
-  </si>
-  <si>
-    <t>4KS_103</t>
-  </si>
-  <si>
-    <t>4KS_104</t>
-  </si>
-  <si>
-    <t>4KS_105</t>
-  </si>
-  <si>
-    <t>4KS_106</t>
-  </si>
-  <si>
-    <t>4KS_201</t>
-  </si>
-  <si>
-    <t>4KS_202</t>
-  </si>
-  <si>
-    <t>4KS_203</t>
-  </si>
-  <si>
-    <t>4KS_204</t>
-  </si>
-  <si>
-    <t>4KS_205</t>
-  </si>
-  <si>
-    <t>4KS_206</t>
-  </si>
-  <si>
-    <t>4KS_301</t>
-  </si>
-  <si>
-    <t>4KS_302</t>
-  </si>
-  <si>
-    <t>4KS_303</t>
-  </si>
-  <si>
-    <t>4KS_304</t>
-  </si>
-  <si>
-    <t>4KS_305</t>
-  </si>
-  <si>
-    <t>4KS_306</t>
-  </si>
-  <si>
-    <t>4KS_401</t>
-  </si>
-  <si>
-    <t>4KS_402</t>
-  </si>
-  <si>
-    <t>4KS_403</t>
-  </si>
-  <si>
-    <t>4KS_404</t>
-  </si>
-  <si>
-    <t>4KS_405</t>
-  </si>
-  <si>
-    <t>4KS_406</t>
-  </si>
-  <si>
-    <t>4KS_501</t>
-  </si>
-  <si>
-    <t>4KS_502</t>
-  </si>
-  <si>
-    <t>4KS_503</t>
-  </si>
-  <si>
-    <t>4KS_504</t>
-  </si>
-  <si>
-    <t>4KS_505</t>
-  </si>
-  <si>
-    <t>4KS_506</t>
-  </si>
-  <si>
-    <t>4UK_101</t>
-  </si>
-  <si>
-    <t>4UK_102</t>
-  </si>
-  <si>
-    <t>4UK_103</t>
-  </si>
-  <si>
-    <t>4UK_104</t>
-  </si>
-  <si>
-    <t>4UK_105</t>
-  </si>
-  <si>
-    <t>4UK_106</t>
-  </si>
-  <si>
-    <t>4UK_201</t>
-  </si>
-  <si>
-    <t>4UK_202</t>
-  </si>
-  <si>
-    <t>4UK_203</t>
-  </si>
-  <si>
-    <t>4UK_204</t>
-  </si>
-  <si>
-    <t>4UK_205</t>
-  </si>
-  <si>
-    <t>4UK_206</t>
-  </si>
-  <si>
-    <t>4UK_301</t>
-  </si>
-  <si>
-    <t>4UK_302</t>
-  </si>
-  <si>
-    <t>4UK_303</t>
-  </si>
-  <si>
-    <t>4UK_304</t>
-  </si>
-  <si>
-    <t>4UK_305</t>
-  </si>
-  <si>
-    <t>4UK_306</t>
-  </si>
-  <si>
-    <t>4UK_401</t>
-  </si>
-  <si>
-    <t>4UK_402</t>
-  </si>
-  <si>
-    <t>4UK_403</t>
-  </si>
-  <si>
-    <t>4UK_404</t>
-  </si>
-  <si>
-    <t>4UK_405</t>
-  </si>
-  <si>
-    <t>4UK_406</t>
-  </si>
-  <si>
-    <t>4UK_501</t>
-  </si>
-  <si>
-    <t>4UK_502</t>
-  </si>
-  <si>
-    <t>4UK_503</t>
-  </si>
-  <si>
-    <t>4UK_504</t>
-  </si>
-  <si>
-    <t>4UK_505</t>
-  </si>
-  <si>
-    <t>4UK_506</t>
-  </si>
-  <si>
     <t>soilpH</t>
   </si>
   <si>
@@ -287,6 +107,186 @@
   </si>
   <si>
     <t>Zn(kg/ha)</t>
+  </si>
+  <si>
+    <t>4KS101</t>
+  </si>
+  <si>
+    <t>4KS102</t>
+  </si>
+  <si>
+    <t>4KS103</t>
+  </si>
+  <si>
+    <t>4KS104</t>
+  </si>
+  <si>
+    <t>4KS105</t>
+  </si>
+  <si>
+    <t>4KS106</t>
+  </si>
+  <si>
+    <t>4KS201</t>
+  </si>
+  <si>
+    <t>4KS202</t>
+  </si>
+  <si>
+    <t>4KS203</t>
+  </si>
+  <si>
+    <t>4KS204</t>
+  </si>
+  <si>
+    <t>4KS205</t>
+  </si>
+  <si>
+    <t>4KS206</t>
+  </si>
+  <si>
+    <t>4KS301</t>
+  </si>
+  <si>
+    <t>4KS302</t>
+  </si>
+  <si>
+    <t>4KS303</t>
+  </si>
+  <si>
+    <t>4KS304</t>
+  </si>
+  <si>
+    <t>4KS305</t>
+  </si>
+  <si>
+    <t>4KS306</t>
+  </si>
+  <si>
+    <t>4KS401</t>
+  </si>
+  <si>
+    <t>4KS402</t>
+  </si>
+  <si>
+    <t>4KS403</t>
+  </si>
+  <si>
+    <t>4KS404</t>
+  </si>
+  <si>
+    <t>4KS405</t>
+  </si>
+  <si>
+    <t>4KS406</t>
+  </si>
+  <si>
+    <t>4KS501</t>
+  </si>
+  <si>
+    <t>4KS502</t>
+  </si>
+  <si>
+    <t>4KS503</t>
+  </si>
+  <si>
+    <t>4KS504</t>
+  </si>
+  <si>
+    <t>4KS505</t>
+  </si>
+  <si>
+    <t>4KS506</t>
+  </si>
+  <si>
+    <t>4UK101</t>
+  </si>
+  <si>
+    <t>4UK102</t>
+  </si>
+  <si>
+    <t>4UK103</t>
+  </si>
+  <si>
+    <t>4UK104</t>
+  </si>
+  <si>
+    <t>4UK105</t>
+  </si>
+  <si>
+    <t>4UK106</t>
+  </si>
+  <si>
+    <t>4UK201</t>
+  </si>
+  <si>
+    <t>4UK202</t>
+  </si>
+  <si>
+    <t>4UK203</t>
+  </si>
+  <si>
+    <t>4UK204</t>
+  </si>
+  <si>
+    <t>4UK205</t>
+  </si>
+  <si>
+    <t>4UK206</t>
+  </si>
+  <si>
+    <t>4UK301</t>
+  </si>
+  <si>
+    <t>4UK302</t>
+  </si>
+  <si>
+    <t>4UK303</t>
+  </si>
+  <si>
+    <t>4UK304</t>
+  </si>
+  <si>
+    <t>4UK305</t>
+  </si>
+  <si>
+    <t>4UK306</t>
+  </si>
+  <si>
+    <t>4UK401</t>
+  </si>
+  <si>
+    <t>4UK402</t>
+  </si>
+  <si>
+    <t>4UK403</t>
+  </si>
+  <si>
+    <t>4UK404</t>
+  </si>
+  <si>
+    <t>4UK405</t>
+  </si>
+  <si>
+    <t>4UK406</t>
+  </si>
+  <si>
+    <t>4UK501</t>
+  </si>
+  <si>
+    <t>4UK502</t>
+  </si>
+  <si>
+    <t>4UK503</t>
+  </si>
+  <si>
+    <t>4UK504</t>
+  </si>
+  <si>
+    <t>4UK505</t>
+  </si>
+  <si>
+    <t>4UK506</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,33 +642,33 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
